--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6767,12 +6767,87 @@
         <v>1.79929</v>
       </c>
       <c r="E253" t="n">
-        <v>1.78778</v>
+        <v>1.77126</v>
       </c>
       <c r="F253" t="n">
-        <v>1.79352</v>
+        <v>1.7811</v>
       </c>
       <c r="G253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1.7837</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.83079</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.76615</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.83079</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1.82839</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.83079</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.78046</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1.79995</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1.7945</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.7978</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.7945</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.79632</v>
+      </c>
+      <c r="G256" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -6842,10 +6842,10 @@
         <v>1.7978</v>
       </c>
       <c r="E256" t="n">
-        <v>1.7945</v>
+        <v>1.74301</v>
       </c>
       <c r="F256" t="n">
-        <v>1.79632</v>
+        <v>1.74301</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -6842,12 +6842,37 @@
         <v>1.7978</v>
       </c>
       <c r="E256" t="n">
-        <v>1.74301</v>
+        <v>1.73774</v>
       </c>
       <c r="F256" t="n">
-        <v>1.74301</v>
+        <v>1.77432</v>
       </c>
       <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1.78289</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.78909</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.78046</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1.7868</v>
+      </c>
+      <c r="G257" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -6864,13 +6864,13 @@
         <v>1.78289</v>
       </c>
       <c r="D257" t="n">
-        <v>1.78909</v>
+        <v>1.79979</v>
       </c>
       <c r="E257" t="n">
-        <v>1.78046</v>
+        <v>1.77496</v>
       </c>
       <c r="F257" t="n">
-        <v>1.7868</v>
+        <v>1.79648</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6864,15 +6864,90 @@
         <v>1.78289</v>
       </c>
       <c r="D257" t="n">
-        <v>1.79979</v>
+        <v>1.81045</v>
       </c>
       <c r="E257" t="n">
         <v>1.77496</v>
       </c>
       <c r="F257" t="n">
-        <v>1.79648</v>
+        <v>1.79962</v>
       </c>
       <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1.80361</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.85633</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.80361</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1.84617</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1.85739</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.86821</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.83957</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1.84182</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBGN</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1.85615</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.85615</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.8209</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.83302</v>
+      </c>
+      <c r="G260" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -6942,10 +6942,10 @@
         <v>1.85615</v>
       </c>
       <c r="E260" t="n">
-        <v>1.8209</v>
+        <v>1.79896</v>
       </c>
       <c r="F260" t="n">
-        <v>1.83302</v>
+        <v>1.79896</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Bulgaria_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6378,12 +6378,35 @@
         <v>1.85615</v>
       </c>
       <c r="E260">
-        <v>1.78533</v>
+        <v>1.78046</v>
       </c>
       <c r="F260">
-        <v>1.78533</v>
+        <v>1.78925</v>
       </c>
       <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>1.79846</v>
+      </c>
+      <c r="D261">
+        <v>1.80811</v>
+      </c>
+      <c r="E261">
+        <v>1.79846</v>
+      </c>
+      <c r="F261">
+        <v>1.80811</v>
+      </c>
+      <c r="G261">
         <v>0</v>
       </c>
     </row>
